--- a/mapping-pn13/ig/StructureDefinition-oncofair-ma-element-plannedperiod.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-ma-element-plannedperiod.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T13:59:04+00:00</t>
+    <t>2024-04-22T14:39:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-ma-element-plannedperiod.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-ma-element-plannedperiod.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="130">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T14:39:57+00:00</t>
+    <t>2024-04-22T15:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -252,9 +252,6 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ELEMENT D'ADMINISTRATION</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -985,7 +982,7 @@
         <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>74</v>
@@ -993,10 +990,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1007,25 +1004,25 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1076,33 +1073,33 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1125,13 +1122,13 @@
         <v>74</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1170,19 +1167,19 @@
         <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
@@ -1205,10 +1202,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1216,10 +1213,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
@@ -1231,16 +1228,16 @@
         <v>74</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1290,13 +1287,13 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
@@ -1308,15 +1305,15 @@
         <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1327,7 +1324,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1339,13 +1336,13 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1396,33 +1393,33 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1433,25 +1430,25 @@
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1502,37 +1499,37 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1551,16 +1548,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1598,19 +1595,19 @@
         <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC8" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC8" t="s" s="2">
+      <c r="AD8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE8" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AD8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE8" t="s" s="2">
+      <c r="AF8" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -1628,15 +1625,15 @@
         <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1644,10 +1641,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>74</v>
@@ -1656,19 +1653,19 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -1718,33 +1715,33 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK9" t="s" s="2">
+      <c r="AL9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1755,7 +1752,7 @@
         <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>74</v>
@@ -1764,89 +1761,89 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="L10" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q10" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-ma-element-plannedperiod.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-ma-element-plannedperiod.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T15:15:59+00:00</t>
+    <t>2024-04-23T15:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-ma-element-plannedperiod.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-ma-element-plannedperiod.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T15:10:46+00:00</t>
+    <t>2024-04-24T09:25:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-ma-element-plannedperiod.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-ma-element-plannedperiod.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-24T09:25:28+00:00</t>
+    <t>2024-04-29T13:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
